--- a/data/trans_orig/P34C_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34C_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BA43484-46B8-4A57-A56B-4EC6CFCE2C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{601B491D-CD4F-44D2-A6CB-916AE2082ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D0D9414-8AAB-4CE4-B4F5-5F5AE2906387}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C02A42A0-F15A-4ABB-94F4-FC400A4F7FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
   <si>
     <t>Población según si realizan durante la semana alguna actividad física moderada con una duración de al menos 10 minutos en 2023 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>60,58%</t>
   </si>
   <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
   </si>
   <si>
     <t>48,44%</t>
   </si>
   <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
   </si>
   <si>
     <t>54,7%</t>
   </si>
   <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>39,42%</t>
   </si>
   <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
   </si>
   <si>
     <t>51,56%</t>
   </si>
   <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
   </si>
   <si>
     <t>45,3%</t>
   </si>
   <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,319 +137,331 @@
     <t>52,01%</t>
   </si>
   <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
   </si>
   <si>
     <t>40,09%</t>
   </si>
   <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
   </si>
   <si>
     <t>45,6%</t>
   </si>
   <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
     <t>41,77%</t>
   </si>
   <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
   </si>
   <si>
     <t>58,23%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFB54DE-3DB2-49A9-B9C9-69DFA646D0A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5ABBE5-A117-4D78-89FE-C7DFA9FFCE3C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1346,7 +1358,7 @@
         <v>272</v>
       </c>
       <c r="D11" s="7">
-        <v>280501</v>
+        <v>280502</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1397,7 +1409,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>556108</v>
+        <v>556109</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1948,13 +1960,13 @@
         <v>2999841</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,25 +1984,25 @@
         <v>85</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>3177</v>
       </c>
       <c r="I23" s="7">
-        <v>2310811</v>
+        <v>2310810</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>5090</v>
@@ -1999,13 +2011,13 @@
         <v>4181153</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2044,7 @@
         <v>5354</v>
       </c>
       <c r="I24" s="7">
-        <v>3799451</v>
+        <v>3799450</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2061,7 +2073,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34C_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34C_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{601B491D-CD4F-44D2-A6CB-916AE2082ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D89A59FF-F3AF-4773-BC7E-F8D1231F80AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C02A42A0-F15A-4ABB-94F4-FC400A4F7FD0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FAE3C157-EB74-4DEC-A06F-4641A82404D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5ABBE5-A117-4D78-89FE-C7DFA9FFCE3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AB46FC-7AFC-42B2-A999-DAB72BED3F9E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P34C_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34C_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D89A59FF-F3AF-4773-BC7E-F8D1231F80AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9CBFE20-0388-44CF-BF48-2E35E3A657CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FAE3C157-EB74-4DEC-A06F-4641A82404D6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{498D1B42-6D59-4F5E-BD49-08844C6696AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
   <si>
     <t>Población según si realizan durante la semana alguna actividad física moderada con una duración de al menos 10 minutos en 2023 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>60,58%</t>
   </si>
   <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
   </si>
   <si>
     <t>48,44%</t>
   </si>
   <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
   </si>
   <si>
     <t>54,7%</t>
   </si>
   <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>39,42%</t>
   </si>
   <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
   </si>
   <si>
     <t>51,56%</t>
   </si>
   <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
   </si>
   <si>
     <t>45,3%</t>
   </si>
   <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,169 +137,169 @@
     <t>52,01%</t>
   </si>
   <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
   </si>
   <si>
     <t>40,09%</t>
   </si>
   <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
   </si>
   <si>
     <t>45,6%</t>
   </si>
   <si>
-    <t>41,88%</t>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
   </si>
   <si>
     <t>49,85%</t>
   </si>
   <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
   </si>
   <si>
     <t>50,15%</t>
   </si>
   <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
+    <t>56,63%</t>
   </si>
   <si>
     <t>55,31%</t>
   </si>
   <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>41,65%</t>
   </si>
   <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
   </si>
   <si>
     <t>40,15%</t>
   </si>
   <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
   </si>
   <si>
     <t>40,9%</t>
   </si>
   <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
   </si>
   <si>
     <t>58,35%</t>
   </si>
   <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
   </si>
   <si>
     <t>59,85%</t>
   </si>
   <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
   </si>
   <si>
     <t>59,1%</t>
   </si>
   <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,103 +365,91 @@
     <t>32,25%</t>
   </si>
   <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
   </si>
   <si>
     <t>25,99%</t>
   </si>
   <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
   </si>
   <si>
     <t>28,52%</t>
   </si>
   <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
   </si>
   <si>
     <t>67,75%</t>
   </si>
   <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
   </si>
   <si>
     <t>74,01%</t>
   </si>
   <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
   </si>
   <si>
     <t>71,48%</t>
   </si>
   <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
   </si>
   <si>
     <t>39,18%</t>
   </si>
   <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
   </si>
   <si>
     <t>60,82%</t>
   </si>
   <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AB46FC-7AFC-42B2-A999-DAB72BED3F9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6722E7-CE4D-4319-AA77-4AD0CA3A11B5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1358,7 +1346,7 @@
         <v>272</v>
       </c>
       <c r="D11" s="7">
-        <v>280502</v>
+        <v>280501</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1409,7 +1397,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>556109</v>
+        <v>556108</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1960,13 +1948,13 @@
         <v>2999841</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1984,25 +1972,25 @@
         <v>85</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>3177</v>
       </c>
       <c r="I23" s="7">
-        <v>2310810</v>
+        <v>2310811</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>5090</v>
@@ -2011,13 +1999,13 @@
         <v>4181153</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2044,7 +2032,7 @@
         <v>5354</v>
       </c>
       <c r="I24" s="7">
-        <v>3799450</v>
+        <v>3799451</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2073,7 +2061,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34C_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34C_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9CBFE20-0388-44CF-BF48-2E35E3A657CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A640A86D-CF8B-4FFC-9B0D-128B422336F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{498D1B42-6D59-4F5E-BD49-08844C6696AB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A6D08399-98B3-42CC-B3E9-DDD1FB50A536}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="164">
   <si>
     <t>Población según si realizan durante la semana alguna actividad física moderada con una duración de al menos 10 minutos en 2023 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -65,391 +65,466 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
   </si>
   <si>
     <t>40,9%</t>
   </si>
   <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
   </si>
   <si>
     <t>59,1%</t>
   </si>
   <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,8 +939,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6722E7-CE4D-4319-AA77-4AD0CA3A11B5}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8008AC0-8D61-43A8-8501-639D83A91701}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -985,7 +1060,7 @@
         <v>95</v>
       </c>
       <c r="D4" s="7">
-        <v>228805</v>
+        <v>245276</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1000,7 +1075,7 @@
         <v>98</v>
       </c>
       <c r="I4" s="7">
-        <v>171950</v>
+        <v>152958</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1015,7 +1090,7 @@
         <v>193</v>
       </c>
       <c r="N4" s="7">
-        <v>400755</v>
+        <v>398234</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1036,7 +1111,7 @@
         <v>77</v>
       </c>
       <c r="D5" s="7">
-        <v>148874</v>
+        <v>154711</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1051,7 +1126,7 @@
         <v>109</v>
       </c>
       <c r="I5" s="7">
-        <v>183007</v>
+        <v>160242</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1066,7 +1141,7 @@
         <v>186</v>
       </c>
       <c r="N5" s="7">
-        <v>331881</v>
+        <v>314953</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1087,7 +1162,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1102,7 +1177,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1117,7 +1192,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1140,7 +1215,7 @@
         <v>161</v>
       </c>
       <c r="D7" s="7">
-        <v>222828</v>
+        <v>221038</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1155,7 +1230,7 @@
         <v>188</v>
       </c>
       <c r="I7" s="7">
-        <v>199885</v>
+        <v>186164</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1170,7 +1245,7 @@
         <v>349</v>
       </c>
       <c r="N7" s="7">
-        <v>422713</v>
+        <v>407202</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1191,7 +1266,7 @@
         <v>141</v>
       </c>
       <c r="D8" s="7">
-        <v>205568</v>
+        <v>202509</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1206,7 +1281,7 @@
         <v>272</v>
       </c>
       <c r="I8" s="7">
-        <v>298692</v>
+        <v>325340</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1221,7 +1296,7 @@
         <v>413</v>
       </c>
       <c r="N8" s="7">
-        <v>504260</v>
+        <v>527849</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1242,7 +1317,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1257,7 +1332,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1272,7 +1347,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1295,7 +1370,7 @@
         <v>273</v>
       </c>
       <c r="D10" s="7">
-        <v>275607</v>
+        <v>268476</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1310,7 +1385,7 @@
         <v>404</v>
       </c>
       <c r="I10" s="7">
-        <v>265154</v>
+        <v>250519</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1325,7 +1400,7 @@
         <v>677</v>
       </c>
       <c r="N10" s="7">
-        <v>540761</v>
+        <v>518995</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1346,7 +1421,7 @@
         <v>272</v>
       </c>
       <c r="D11" s="7">
-        <v>280501</v>
+        <v>266691</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1361,7 +1436,7 @@
         <v>439</v>
       </c>
       <c r="I11" s="7">
-        <v>316033</v>
+        <v>289776</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1376,7 +1451,7 @@
         <v>711</v>
       </c>
       <c r="N11" s="7">
-        <v>596534</v>
+        <v>556467</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1397,7 +1472,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>556108</v>
+        <v>535167</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1412,7 +1487,7 @@
         <v>843</v>
       </c>
       <c r="I12" s="7">
-        <v>581187</v>
+        <v>540295</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1427,7 +1502,7 @@
         <v>1388</v>
       </c>
       <c r="N12" s="7">
-        <v>1137295</v>
+        <v>1075462</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1450,7 +1525,7 @@
         <v>320</v>
       </c>
       <c r="D13" s="7">
-        <v>309386</v>
+        <v>298234</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1465,7 +1540,7 @@
         <v>560</v>
       </c>
       <c r="I13" s="7">
-        <v>347058</v>
+        <v>323921</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1480,7 +1555,7 @@
         <v>880</v>
       </c>
       <c r="N13" s="7">
-        <v>656444</v>
+        <v>622155</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1501,7 +1576,7 @@
         <v>344</v>
       </c>
       <c r="D14" s="7">
-        <v>413424</v>
+        <v>588623</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1516,7 +1591,7 @@
         <v>579</v>
       </c>
       <c r="I14" s="7">
-        <v>399067</v>
+        <v>387896</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1531,7 +1606,7 @@
         <v>923</v>
       </c>
       <c r="N14" s="7">
-        <v>812491</v>
+        <v>976520</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1552,7 +1627,7 @@
         <v>664</v>
       </c>
       <c r="D15" s="7">
-        <v>722810</v>
+        <v>886857</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1567,7 +1642,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746125</v>
+        <v>711817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1582,7 +1657,7 @@
         <v>1803</v>
       </c>
       <c r="N15" s="7">
-        <v>1468935</v>
+        <v>1598675</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1605,7 +1680,7 @@
         <v>287</v>
       </c>
       <c r="D16" s="7">
-        <v>249980</v>
+        <v>235736</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1620,7 +1695,7 @@
         <v>416</v>
       </c>
       <c r="I16" s="7">
-        <v>238054</v>
+        <v>220917</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1635,7 +1710,7 @@
         <v>703</v>
       </c>
       <c r="N16" s="7">
-        <v>488034</v>
+        <v>456653</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1656,7 +1731,7 @@
         <v>376</v>
       </c>
       <c r="D17" s="7">
-        <v>350177</v>
+        <v>325498</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1671,7 +1746,7 @@
         <v>583</v>
       </c>
       <c r="I17" s="7">
-        <v>354885</v>
+        <v>323436</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1686,7 +1761,7 @@
         <v>959</v>
       </c>
       <c r="N17" s="7">
-        <v>705062</v>
+        <v>648933</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1707,7 +1782,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1722,7 +1797,7 @@
         <v>999</v>
       </c>
       <c r="I18" s="7">
-        <v>592939</v>
+        <v>544353</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1737,7 +1812,7 @@
         <v>1662</v>
       </c>
       <c r="N18" s="7">
-        <v>1193096</v>
+        <v>1105586</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1757,10 +1832,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>323</v>
+        <v>204</v>
       </c>
       <c r="D19" s="7">
-        <v>224595</v>
+        <v>132498</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1772,10 +1847,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>511</v>
+        <v>319</v>
       </c>
       <c r="I19" s="7">
-        <v>266539</v>
+        <v>150390</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1787,10 +1862,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>834</v>
+        <v>523</v>
       </c>
       <c r="N19" s="7">
-        <v>491134</v>
+        <v>282889</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1808,10 +1883,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>703</v>
+        <v>366</v>
       </c>
       <c r="D20" s="7">
-        <v>471798</v>
+        <v>235667</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1823,10 +1898,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>1195</v>
+        <v>507</v>
       </c>
       <c r="I20" s="7">
-        <v>759127</v>
+        <v>457627</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -1838,10 +1913,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>1898</v>
+        <v>873</v>
       </c>
       <c r="N20" s="7">
-        <v>1230925</v>
+        <v>693293</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -1859,10 +1934,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1026</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>696393</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1874,10 +1949,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1706</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1025666</v>
+        <v>608017</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1889,10 +1964,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2732</v>
+        <v>1396</v>
       </c>
       <c r="N21" s="7">
-        <v>1722059</v>
+        <v>976182</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1906,55 +1981,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1459</v>
+        <v>119</v>
       </c>
       <c r="D22" s="7">
-        <v>1511200</v>
+        <v>79046</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>2177</v>
+        <v>192</v>
       </c>
       <c r="I22" s="7">
-        <v>1488640</v>
+        <v>91853</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>3636</v>
+        <v>311</v>
       </c>
       <c r="N22" s="7">
-        <v>2999841</v>
+        <v>170899</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,49 +2038,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1913</v>
+        <v>337</v>
       </c>
       <c r="D23" s="7">
-        <v>1870343</v>
+        <v>202444</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>3177</v>
+        <v>688</v>
       </c>
       <c r="I23" s="7">
-        <v>2310811</v>
+        <v>333477</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>5090</v>
+        <v>1025</v>
       </c>
       <c r="N23" s="7">
-        <v>4181153</v>
+        <v>535921</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,63 +2089,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>456</v>
+      </c>
+      <c r="D24" s="7">
+        <v>281490</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425330</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1336</v>
+      </c>
+      <c r="N24" s="7">
+        <v>706820</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1459</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1480304</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2177</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1376722</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3636</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2857026</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1913</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1976143</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3177</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2277794</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5090</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4253937</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3372</v>
       </c>
-      <c r="D24" s="7">
-        <v>3381543</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3456447</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5354</v>
       </c>
-      <c r="I24" s="7">
-        <v>3799451</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3654516</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8726</v>
       </c>
-      <c r="N24" s="7">
-        <v>7180994</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="N27" s="7">
+        <v>7110963</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
